--- a/output/StructureDefinition-np-core-patient.xlsx
+++ b/output/StructureDefinition-np-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4353" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4355" uniqueCount="683">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T08:30:34+05:45</t>
+    <t>2025-08-29T13:54:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -495,6 +495,23 @@
     <t>Patient.modifierExtension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
@@ -573,17 +590,10 @@
     <t>Patient.identifier.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -1812,9 +1822,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -2989,7 +2996,7 @@
         <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>84</v>
@@ -3349,7 +3356,7 @@
         <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>84</v>
@@ -3698,14 +3705,14 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>84</v>
@@ -3720,13 +3727,17 @@
         <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>84</v>
       </c>
@@ -3774,7 +3785,7 @@
         <v>84</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>82</v>
@@ -3792,7 +3803,7 @@
         <v>84</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>84</v>
@@ -3809,10 +3820,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3823,7 +3834,7 @@
         <v>94</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>84</v>
@@ -3835,17 +3846,17 @@
         <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>84</v>
@@ -3882,10 +3893,10 @@
         <v>84</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>84</v>
@@ -3894,7 +3905,7 @@
         <v>145</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>82</v>
@@ -3909,19 +3920,19 @@
         <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>84</v>
@@ -3929,13 +3940,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>84</v>
@@ -3957,17 +3968,17 @@
         <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>84</v>
@@ -4016,7 +4027,7 @@
         <v>84</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
@@ -4031,19 +4042,19 @@
         <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>84</v>
@@ -4051,10 +4062,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4080,10 +4091,10 @@
         <v>96</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4134,7 +4145,7 @@
         <v>84</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
@@ -4143,7 +4154,7 @@
         <v>94</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>84</v>
@@ -4152,7 +4163,7 @@
         <v>84</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>84</v>
@@ -4169,14 +4180,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -4198,13 +4209,13 @@
         <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4245,7 +4256,7 @@
         <v>144</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>84</v>
@@ -4254,7 +4265,7 @@
         <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>82</v>
@@ -4272,7 +4283,7 @@
         <v>84</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>84</v>
@@ -4289,10 +4300,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4318,16 +4329,16 @@
         <v>114</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>84</v>
@@ -4337,7 +4348,7 @@
         <v>84</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>84</v>
@@ -4355,10 +4366,10 @@
         <v>118</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>84</v>
@@ -4376,7 +4387,7 @@
         <v>84</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>82</v>
@@ -4394,7 +4405,7 @@
         <v>84</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>84</v>
@@ -4411,10 +4422,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4437,19 +4448,19 @@
         <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>84</v>
@@ -4474,13 +4485,13 @@
         <v>84</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>84</v>
@@ -4498,7 +4509,7 @@
         <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
@@ -4516,7 +4527,7 @@
         <v>84</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>84</v>
@@ -4525,7 +4536,7 @@
         <v>84</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>84</v>
@@ -4533,10 +4544,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4562,16 +4573,16 @@
         <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>84</v>
@@ -4581,10 +4592,10 @@
         <v>84</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>84</v>
@@ -4620,7 +4631,7 @@
         <v>84</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>82</v>
@@ -4638,7 +4649,7 @@
         <v>84</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>84</v>
@@ -4647,7 +4658,7 @@
         <v>84</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>84</v>
@@ -4655,10 +4666,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4681,16 +4692,16 @@
         <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4704,7 +4715,7 @@
         <v>84</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>84</v>
@@ -4740,7 +4751,7 @@
         <v>84</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
@@ -4749,7 +4760,7 @@
         <v>94</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>106</v>
@@ -4758,7 +4769,7 @@
         <v>84</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>84</v>
@@ -4767,7 +4778,7 @@
         <v>84</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>84</v>
@@ -4775,10 +4786,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4801,13 +4812,13 @@
         <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4858,7 +4869,7 @@
         <v>84</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -4876,7 +4887,7 @@
         <v>84</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>84</v>
@@ -4885,7 +4896,7 @@
         <v>84</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>84</v>
@@ -4893,10 +4904,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4919,16 +4930,16 @@
         <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4978,7 +4989,7 @@
         <v>84</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
@@ -4996,7 +5007,7 @@
         <v>84</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>84</v>
@@ -5005,7 +5016,7 @@
         <v>84</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>84</v>
@@ -5013,13 +5024,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>84</v>
@@ -5041,17 +5052,17 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>84</v>
@@ -5100,7 +5111,7 @@
         <v>84</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
@@ -5115,19 +5126,19 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>84</v>
@@ -5135,10 +5146,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5164,10 +5175,10 @@
         <v>96</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5218,7 +5229,7 @@
         <v>84</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
@@ -5227,7 +5238,7 @@
         <v>94</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>84</v>
@@ -5236,7 +5247,7 @@
         <v>84</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>84</v>
@@ -5253,14 +5264,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5282,13 +5293,13 @@
         <v>141</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5329,7 +5340,7 @@
         <v>144</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>84</v>
@@ -5338,7 +5349,7 @@
         <v>145</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>82</v>
@@ -5356,7 +5367,7 @@
         <v>84</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>84</v>
@@ -5373,10 +5384,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5402,16 +5413,16 @@
         <v>114</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>84</v>
@@ -5421,7 +5432,7 @@
         <v>84</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>84</v>
@@ -5439,10 +5450,10 @@
         <v>118</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>84</v>
@@ -5460,7 +5471,7 @@
         <v>84</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>82</v>
@@ -5478,7 +5489,7 @@
         <v>84</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>84</v>
@@ -5495,10 +5506,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5521,19 +5532,19 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>84</v>
@@ -5558,13 +5569,13 @@
         <v>84</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>84</v>
@@ -5582,7 +5593,7 @@
         <v>84</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
@@ -5600,7 +5611,7 @@
         <v>84</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>84</v>
@@ -5609,7 +5620,7 @@
         <v>84</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>84</v>
@@ -5617,10 +5628,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5646,16 +5657,16 @@
         <v>108</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>84</v>
@@ -5665,10 +5676,10 @@
         <v>84</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>84</v>
@@ -5704,7 +5715,7 @@
         <v>84</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
@@ -5722,7 +5733,7 @@
         <v>84</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>84</v>
@@ -5731,7 +5742,7 @@
         <v>84</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>84</v>
@@ -5739,10 +5750,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5765,16 +5776,16 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5788,7 +5799,7 @@
         <v>84</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>84</v>
@@ -5824,7 +5835,7 @@
         <v>84</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
@@ -5833,7 +5844,7 @@
         <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>106</v>
@@ -5842,7 +5853,7 @@
         <v>84</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>84</v>
@@ -5851,7 +5862,7 @@
         <v>84</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>84</v>
@@ -5859,10 +5870,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5885,13 +5896,13 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5942,7 +5953,7 @@
         <v>84</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -5960,7 +5971,7 @@
         <v>84</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>84</v>
@@ -5969,7 +5980,7 @@
         <v>84</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>84</v>
@@ -5977,10 +5988,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6003,16 +6014,16 @@
         <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6062,7 +6073,7 @@
         <v>84</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
@@ -6080,7 +6091,7 @@
         <v>84</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>84</v>
@@ -6089,7 +6100,7 @@
         <v>84</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>84</v>
@@ -6097,13 +6108,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>84</v>
@@ -6125,17 +6136,17 @@
         <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>84</v>
@@ -6184,7 +6195,7 @@
         <v>84</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>82</v>
@@ -6199,19 +6210,19 @@
         <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>84</v>
@@ -6219,13 +6230,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>84</v>
@@ -6247,17 +6258,17 @@
         <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>84</v>
@@ -6306,7 +6317,7 @@
         <v>84</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
@@ -6321,19 +6332,19 @@
         <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>84</v>
@@ -6341,10 +6352,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6370,10 +6381,10 @@
         <v>96</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6424,7 +6435,7 @@
         <v>84</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -6433,7 +6444,7 @@
         <v>94</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>84</v>
@@ -6442,7 +6453,7 @@
         <v>84</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>84</v>
@@ -6459,14 +6470,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6488,13 +6499,13 @@
         <v>141</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6535,7 +6546,7 @@
         <v>144</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>84</v>
@@ -6544,7 +6555,7 @@
         <v>145</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
@@ -6562,7 +6573,7 @@
         <v>84</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>84</v>
@@ -6579,10 +6590,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6608,16 +6619,16 @@
         <v>114</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>84</v>
@@ -6645,10 +6656,10 @@
         <v>118</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>84</v>
@@ -6666,7 +6677,7 @@
         <v>84</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -6684,7 +6695,7 @@
         <v>84</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>84</v>
@@ -6701,10 +6712,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6727,19 +6738,19 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>84</v>
@@ -6764,13 +6775,13 @@
         <v>84</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>84</v>
@@ -6788,7 +6799,7 @@
         <v>84</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -6806,7 +6817,7 @@
         <v>84</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>84</v>
@@ -6815,7 +6826,7 @@
         <v>84</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>84</v>
@@ -6823,10 +6834,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6852,16 +6863,16 @@
         <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>84</v>
@@ -6871,10 +6882,10 @@
         <v>84</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>84</v>
@@ -6910,7 +6921,7 @@
         <v>84</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -6928,7 +6939,7 @@
         <v>84</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>84</v>
@@ -6937,7 +6948,7 @@
         <v>84</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>84</v>
@@ -6945,10 +6956,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6971,16 +6982,16 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6994,7 +7005,7 @@
         <v>84</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>84</v>
@@ -7030,7 +7041,7 @@
         <v>84</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -7039,7 +7050,7 @@
         <v>94</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>106</v>
@@ -7048,7 +7059,7 @@
         <v>84</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>84</v>
@@ -7057,7 +7068,7 @@
         <v>84</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>84</v>
@@ -7065,10 +7076,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7091,13 +7102,13 @@
         <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7148,7 +7159,7 @@
         <v>84</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
@@ -7166,7 +7177,7 @@
         <v>84</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>84</v>
@@ -7175,7 +7186,7 @@
         <v>84</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>84</v>
@@ -7183,10 +7194,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7209,16 +7220,16 @@
         <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7268,7 +7279,7 @@
         <v>84</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
@@ -7286,7 +7297,7 @@
         <v>84</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>84</v>
@@ -7295,7 +7306,7 @@
         <v>84</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>84</v>
@@ -7303,10 +7314,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7317,7 +7328,7 @@
         <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>84</v>
@@ -7329,70 +7340,70 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M41" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
@@ -7407,16 +7418,16 @@
         <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>84</v>
@@ -7427,10 +7438,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7453,19 +7464,19 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>84</v>
@@ -7514,7 +7525,7 @@
         <v>84</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -7532,16 +7543,16 @@
         <v>84</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>84</v>
@@ -7549,10 +7560,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7578,10 +7589,10 @@
         <v>96</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7632,7 +7643,7 @@
         <v>84</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
@@ -7641,7 +7652,7 @@
         <v>94</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>84</v>
@@ -7650,7 +7661,7 @@
         <v>84</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>84</v>
@@ -7667,14 +7678,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7696,13 +7707,13 @@
         <v>141</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7743,7 +7754,7 @@
         <v>144</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>84</v>
@@ -7752,7 +7763,7 @@
         <v>145</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
@@ -7770,7 +7781,7 @@
         <v>84</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>84</v>
@@ -7787,10 +7798,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7816,16 +7827,16 @@
         <v>114</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>84</v>
@@ -7835,7 +7846,7 @@
         <v>84</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>84</v>
@@ -7853,10 +7864,10 @@
         <v>118</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>84</v>
@@ -7874,7 +7885,7 @@
         <v>84</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -7892,7 +7903,7 @@
         <v>84</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>84</v>
@@ -7901,7 +7912,7 @@
         <v>84</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>84</v>
@@ -7909,10 +7920,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7935,19 +7946,19 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>84</v>
@@ -7996,7 +8007,7 @@
         <v>84</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
@@ -8014,7 +8025,7 @@
         <v>84</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>84</v>
@@ -8023,7 +8034,7 @@
         <v>84</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>84</v>
@@ -8031,14 +8042,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -8057,16 +8068,16 @@
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8116,7 +8127,7 @@
         <v>84</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -8134,7 +8145,7 @@
         <v>84</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>84</v>
@@ -8143,7 +8154,7 @@
         <v>84</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>84</v>
@@ -8151,14 +8162,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -8177,16 +8188,16 @@
         <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8236,7 +8247,7 @@
         <v>84</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
@@ -8254,7 +8265,7 @@
         <v>84</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>84</v>
@@ -8263,7 +8274,7 @@
         <v>84</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>84</v>
@@ -8271,10 +8282,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8297,13 +8308,13 @@
         <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8354,7 +8365,7 @@
         <v>84</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -8372,7 +8383,7 @@
         <v>84</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>84</v>
@@ -8381,7 +8392,7 @@
         <v>84</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>84</v>
@@ -8389,10 +8400,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8415,13 +8426,13 @@
         <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8472,7 +8483,7 @@
         <v>84</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
@@ -8490,7 +8501,7 @@
         <v>84</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>84</v>
@@ -8499,7 +8510,7 @@
         <v>84</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>84</v>
@@ -8507,10 +8518,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8533,17 +8544,17 @@
         <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>84</v>
@@ -8592,7 +8603,7 @@
         <v>84</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8610,7 +8621,7 @@
         <v>84</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>84</v>
@@ -8619,7 +8630,7 @@
         <v>84</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>84</v>
@@ -8627,10 +8638,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8653,19 +8664,19 @@
         <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>84</v>
@@ -8702,10 +8713,10 @@
         <v>84</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>84</v>
@@ -8714,7 +8725,7 @@
         <v>145</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8732,16 +8743,16 @@
         <v>84</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>84</v>
@@ -8749,13 +8760,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>84</v>
@@ -8777,19 +8788,19 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>84</v>
@@ -8838,7 +8849,7 @@
         <v>84</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -8856,16 +8867,16 @@
         <v>84</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>84</v>
@@ -8873,10 +8884,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8902,10 +8913,10 @@
         <v>96</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8956,7 +8967,7 @@
         <v>84</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -8965,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>84</v>
@@ -8974,7 +8985,7 @@
         <v>84</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>84</v>
@@ -8991,14 +9002,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -9020,13 +9031,13 @@
         <v>141</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9067,7 +9078,7 @@
         <v>144</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>84</v>
@@ -9076,7 +9087,7 @@
         <v>145</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
@@ -9094,7 +9105,7 @@
         <v>84</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>84</v>
@@ -9111,10 +9122,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9140,10 +9151,10 @@
         <v>114</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9155,7 +9166,7 @@
         <v>84</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>84</v>
@@ -9173,10 +9184,10 @@
         <v>118</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>84</v>
@@ -9194,7 +9205,7 @@
         <v>84</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>82</v>
@@ -9203,7 +9214,7 @@
         <v>94</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>106</v>
@@ -9212,7 +9223,7 @@
         <v>84</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>84</v>
@@ -9221,7 +9232,7 @@
         <v>84</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>84</v>
@@ -9229,10 +9240,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9255,19 +9266,19 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>84</v>
@@ -9316,7 +9327,7 @@
         <v>84</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -9325,7 +9336,7 @@
         <v>94</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>106</v>
@@ -9334,7 +9345,7 @@
         <v>84</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>84</v>
@@ -9343,7 +9354,7 @@
         <v>84</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>84</v>
@@ -9351,10 +9362,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9380,16 +9391,16 @@
         <v>114</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>84</v>
@@ -9417,10 +9428,10 @@
         <v>118</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>84</v>
@@ -9438,7 +9449,7 @@
         <v>84</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9456,7 +9467,7 @@
         <v>84</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>84</v>
@@ -9465,7 +9476,7 @@
         <v>84</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>84</v>
@@ -9473,10 +9484,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9499,16 +9510,16 @@
         <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9558,7 +9569,7 @@
         <v>84</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9576,7 +9587,7 @@
         <v>84</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>84</v>
@@ -9585,7 +9596,7 @@
         <v>84</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>84</v>
@@ -9593,10 +9604,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9619,13 +9630,13 @@
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9676,7 +9687,7 @@
         <v>84</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -9694,7 +9705,7 @@
         <v>84</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>84</v>
@@ -9711,13 +9722,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>84</v>
@@ -9739,19 +9750,19 @@
         <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>84</v>
@@ -9800,7 +9811,7 @@
         <v>84</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -9818,16 +9829,16 @@
         <v>84</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>84</v>
@@ -9835,10 +9846,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9864,10 +9875,10 @@
         <v>96</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9918,7 +9929,7 @@
         <v>84</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
@@ -9927,7 +9938,7 @@
         <v>94</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>84</v>
@@ -9936,7 +9947,7 @@
         <v>84</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>84</v>
@@ -9953,14 +9964,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9982,13 +9993,13 @@
         <v>141</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10029,7 +10040,7 @@
         <v>144</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>84</v>
@@ -10038,7 +10049,7 @@
         <v>145</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
@@ -10056,7 +10067,7 @@
         <v>84</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>84</v>
@@ -10073,10 +10084,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10102,10 +10113,10 @@
         <v>114</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10117,7 +10128,7 @@
         <v>84</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>84</v>
@@ -10135,10 +10146,10 @@
         <v>118</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>84</v>
@@ -10156,7 +10167,7 @@
         <v>84</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
@@ -10165,7 +10176,7 @@
         <v>94</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>106</v>
@@ -10174,7 +10185,7 @@
         <v>84</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>84</v>
@@ -10183,7 +10194,7 @@
         <v>84</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>84</v>
@@ -10191,10 +10202,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10217,19 +10228,19 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>84</v>
@@ -10278,7 +10289,7 @@
         <v>84</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>82</v>
@@ -10287,7 +10298,7 @@
         <v>94</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>106</v>
@@ -10296,7 +10307,7 @@
         <v>84</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>84</v>
@@ -10305,7 +10316,7 @@
         <v>84</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>84</v>
@@ -10313,10 +10324,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10342,16 +10353,16 @@
         <v>114</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>84</v>
@@ -10379,10 +10390,10 @@
         <v>118</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>84</v>
@@ -10400,7 +10411,7 @@
         <v>84</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -10418,7 +10429,7 @@
         <v>84</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>84</v>
@@ -10427,7 +10438,7 @@
         <v>84</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>84</v>
@@ -10435,10 +10446,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10461,16 +10472,16 @@
         <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10520,7 +10531,7 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -10538,7 +10549,7 @@
         <v>84</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>84</v>
@@ -10547,7 +10558,7 @@
         <v>84</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>84</v>
@@ -10555,10 +10566,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10581,13 +10592,13 @@
         <v>95</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10638,7 +10649,7 @@
         <v>84</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -10656,7 +10667,7 @@
         <v>84</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>84</v>
@@ -10673,10 +10684,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10684,7 +10695,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>94</v>
@@ -10702,16 +10713,16 @@
         <v>114</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>84</v>
@@ -10739,10 +10750,10 @@
         <v>118</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>84</v>
@@ -10760,7 +10771,7 @@
         <v>84</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -10778,16 +10789,16 @@
         <v>84</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>84</v>
@@ -10795,10 +10806,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10806,7 +10817,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>94</v>
@@ -10821,19 +10832,19 @@
         <v>95</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>84</v>
@@ -10882,7 +10893,7 @@
         <v>84</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
@@ -10900,27 +10911,27 @@
         <v>84</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10931,7 +10942,7 @@
         <v>82</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>84</v>
@@ -10943,19 +10954,19 @@
         <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>84</v>
@@ -11004,7 +11015,7 @@
         <v>84</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>82</v>
@@ -11022,16 +11033,16 @@
         <v>84</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>84</v>
@@ -11039,10 +11050,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11065,19 +11076,19 @@
         <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>84</v>
@@ -11126,7 +11137,7 @@
         <v>84</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
@@ -11144,16 +11155,16 @@
         <v>84</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>84</v>
@@ -11161,10 +11172,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11190,10 +11201,10 @@
         <v>96</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11244,7 +11255,7 @@
         <v>84</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -11253,7 +11264,7 @@
         <v>94</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>84</v>
@@ -11262,7 +11273,7 @@
         <v>84</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>84</v>
@@ -11279,14 +11290,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11308,13 +11319,13 @@
         <v>141</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11355,7 +11366,7 @@
         <v>144</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>84</v>
@@ -11364,7 +11375,7 @@
         <v>145</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
@@ -11382,7 +11393,7 @@
         <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>84</v>
@@ -11399,13 +11410,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>84</v>
@@ -11427,13 +11438,13 @@
         <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11484,7 +11495,7 @@
         <v>84</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -11519,10 +11530,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11548,16 +11559,16 @@
         <v>114</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>84</v>
@@ -11570,7 +11581,7 @@
         <v>84</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>84</v>
@@ -11585,10 +11596,10 @@
         <v>118</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>84</v>
@@ -11606,7 +11617,7 @@
         <v>84</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -11624,7 +11635,7 @@
         <v>84</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>84</v>
@@ -11633,7 +11644,7 @@
         <v>84</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>84</v>
@@ -11641,10 +11652,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11670,13 +11681,13 @@
         <v>114</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11690,7 +11701,7 @@
         <v>84</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>84</v>
@@ -11705,10 +11716,10 @@
         <v>118</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>84</v>
@@ -11726,7 +11737,7 @@
         <v>84</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -11744,7 +11755,7 @@
         <v>84</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>84</v>
@@ -11753,7 +11764,7 @@
         <v>84</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>84</v>
@@ -11761,10 +11772,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11787,19 +11798,19 @@
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>84</v>
@@ -11812,7 +11823,7 @@
         <v>84</v>
       </c>
       <c r="T78" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="U78" t="s" s="2">
         <v>84</v>
@@ -11848,7 +11859,7 @@
         <v>84</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
@@ -11866,7 +11877,7 @@
         <v>84</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>84</v>
@@ -11875,7 +11886,7 @@
         <v>84</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>84</v>
@@ -11883,10 +11894,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11909,13 +11920,13 @@
         <v>95</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11930,7 +11941,7 @@
         <v>84</v>
       </c>
       <c r="T79" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="U79" t="s" s="2">
         <v>84</v>
@@ -11966,7 +11977,7 @@
         <v>84</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -11984,7 +11995,7 @@
         <v>84</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>84</v>
@@ -11993,7 +12004,7 @@
         <v>84</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>84</v>
@@ -12001,14 +12012,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12027,13 +12038,13 @@
         <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12048,7 +12059,7 @@
         <v>84</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>84</v>
@@ -12084,7 +12095,7 @@
         <v>84</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -12102,7 +12113,7 @@
         <v>84</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>84</v>
@@ -12111,7 +12122,7 @@
         <v>84</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>84</v>
@@ -12119,14 +12130,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12145,16 +12156,16 @@
         <v>95</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12168,7 +12179,7 @@
         <v>84</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="U81" t="s" s="2">
         <v>84</v>
@@ -12204,7 +12215,7 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12222,7 +12233,7 @@
         <v>84</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>84</v>
@@ -12231,7 +12242,7 @@
         <v>84</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>84</v>
@@ -12239,14 +12250,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12265,13 +12276,13 @@
         <v>95</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12322,7 +12333,7 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -12340,7 +12351,7 @@
         <v>84</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>84</v>
@@ -12349,7 +12360,7 @@
         <v>84</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>84</v>
@@ -12357,14 +12368,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12383,13 +12394,13 @@
         <v>95</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12404,7 +12415,7 @@
         <v>84</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>84</v>
@@ -12440,7 +12451,7 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -12458,7 +12469,7 @@
         <v>84</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>84</v>
@@ -12467,7 +12478,7 @@
         <v>84</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>84</v>
@@ -12475,10 +12486,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12501,16 +12512,16 @@
         <v>95</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12560,7 +12571,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -12578,7 +12589,7 @@
         <v>84</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>84</v>
@@ -12587,7 +12598,7 @@
         <v>84</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>84</v>
@@ -12595,10 +12606,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12621,17 +12632,17 @@
         <v>95</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>84</v>
@@ -12644,7 +12655,7 @@
         <v>84</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>84</v>
@@ -12680,7 +12691,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -12698,7 +12709,7 @@
         <v>84</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>84</v>
@@ -12707,7 +12718,7 @@
         <v>84</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>84</v>
@@ -12715,10 +12726,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12741,17 +12752,17 @@
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>84</v>
@@ -12776,13 +12787,13 @@
         <v>84</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>84</v>
@@ -12800,7 +12811,7 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -12818,16 +12829,16 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>84</v>
@@ -12835,10 +12846,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12861,19 +12872,19 @@
         <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>84</v>
@@ -12922,7 +12933,7 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -12940,16 +12951,16 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>84</v>
@@ -12957,10 +12968,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12983,19 +12994,19 @@
         <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>84</v>
@@ -13044,7 +13055,7 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
@@ -13062,16 +13073,16 @@
         <v>84</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>84</v>
@@ -13079,10 +13090,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13105,19 +13116,19 @@
         <v>84</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>84</v>
@@ -13166,7 +13177,7 @@
         <v>84</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>82</v>
@@ -13178,19 +13189,19 @@
         <v>84</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>84</v>
@@ -13201,10 +13212,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13227,13 +13238,13 @@
         <v>84</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13284,7 +13295,7 @@
         <v>84</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>82</v>
@@ -13293,7 +13304,7 @@
         <v>94</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>84</v>
@@ -13302,7 +13313,7 @@
         <v>84</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>84</v>
@@ -13319,14 +13330,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13348,13 +13359,13 @@
         <v>141</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13404,7 +13415,7 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -13422,7 +13433,7 @@
         <v>84</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>84</v>
@@ -13439,14 +13450,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13468,16 +13479,16 @@
         <v>141</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>580</v>
+        <v>158</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>84</v>
@@ -13526,7 +13537,7 @@
         <v>84</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -13561,10 +13572,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13587,17 +13598,17 @@
         <v>84</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>84</v>
@@ -13622,13 +13633,13 @@
         <v>84</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>84</v>
@@ -13646,7 +13657,7 @@
         <v>84</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -13664,16 +13675,16 @@
         <v>84</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>84</v>
@@ -13681,10 +13692,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13707,17 +13718,17 @@
         <v>84</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>84</v>
@@ -13766,7 +13777,7 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -13775,7 +13786,7 @@
         <v>94</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>106</v>
@@ -13784,16 +13795,16 @@
         <v>84</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>84</v>
@@ -13801,10 +13812,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13827,19 +13838,19 @@
         <v>84</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
@@ -13888,7 +13899,7 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>82</v>
@@ -13897,7 +13908,7 @@
         <v>83</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13906,16 +13917,16 @@
         <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>84</v>
@@ -13923,10 +13934,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13949,17 +13960,17 @@
         <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>84</v>
@@ -14008,7 +14019,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -14017,7 +14028,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14026,16 +14037,16 @@
         <v>84</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>84</v>
@@ -14043,10 +14054,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14072,14 +14083,14 @@
         <v>114</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>84</v>
@@ -14107,10 +14118,10 @@
         <v>118</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>84</v>
@@ -14128,7 +14139,7 @@
         <v>84</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
@@ -14146,16 +14157,16 @@
         <v>84</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>84</v>
@@ -14163,10 +14174,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14189,17 +14200,17 @@
         <v>84</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>84</v>
@@ -14248,7 +14259,7 @@
         <v>84</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14257,7 +14268,7 @@
         <v>94</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>106</v>
@@ -14266,16 +14277,16 @@
         <v>84</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>84</v>
@@ -14283,10 +14294,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14309,13 +14320,13 @@
         <v>84</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14366,7 +14377,7 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -14384,13 +14395,13 @@
         <v>84</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>84</v>
@@ -14401,10 +14412,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14427,19 +14438,19 @@
         <v>84</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>84</v>
@@ -14488,7 +14499,7 @@
         <v>84</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
@@ -14506,13 +14517,13 @@
         <v>84</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>84</v>
@@ -14523,10 +14534,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14549,13 +14560,13 @@
         <v>84</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14606,7 +14617,7 @@
         <v>84</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>82</v>
@@ -14615,7 +14626,7 @@
         <v>94</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>84</v>
@@ -14624,7 +14635,7 @@
         <v>84</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>84</v>
@@ -14641,14 +14652,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14670,13 +14681,13 @@
         <v>141</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14726,7 +14737,7 @@
         <v>84</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>82</v>
@@ -14744,7 +14755,7 @@
         <v>84</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>84</v>
@@ -14761,14 +14772,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14790,16 +14801,16 @@
         <v>141</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>580</v>
+        <v>158</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>84</v>
@@ -14848,7 +14859,7 @@
         <v>84</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>82</v>
@@ -14883,10 +14894,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14909,19 +14920,19 @@
         <v>84</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>84</v>
@@ -14970,7 +14981,7 @@
         <v>84</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>94</v>
@@ -14988,16 +14999,16 @@
         <v>84</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>84</v>
@@ -15005,10 +15016,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15031,19 +15042,19 @@
         <v>84</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>84</v>
@@ -15092,7 +15103,7 @@
         <v>84</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>82</v>
@@ -15110,16 +15121,16 @@
         <v>84</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>84</v>
@@ -15127,14 +15138,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15153,16 +15164,16 @@
         <v>84</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15212,7 +15223,7 @@
         <v>84</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>82</v>
@@ -15230,16 +15241,16 @@
         <v>84</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>84</v>
@@ -15247,10 +15258,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15273,19 +15284,19 @@
         <v>95</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>84</v>
@@ -15334,7 +15345,7 @@
         <v>84</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>82</v>
@@ -15352,13 +15363,13 @@
         <v>84</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>84</v>
@@ -15369,10 +15380,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15383,7 +15394,7 @@
         <v>82</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>84</v>
@@ -15395,19 +15406,19 @@
         <v>95</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>84</v>
@@ -15456,7 +15467,7 @@
         <v>84</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>82</v>
@@ -15474,13 +15485,13 @@
         <v>84</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>84</v>
@@ -15491,10 +15502,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15517,13 +15528,13 @@
         <v>84</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15574,7 +15585,7 @@
         <v>84</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>82</v>
@@ -15583,7 +15594,7 @@
         <v>94</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>84</v>
@@ -15592,7 +15603,7 @@
         <v>84</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>84</v>
@@ -15609,14 +15620,14 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15638,13 +15649,13 @@
         <v>141</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15694,7 +15705,7 @@
         <v>84</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>82</v>
@@ -15712,7 +15723,7 @@
         <v>84</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>84</v>
@@ -15729,14 +15740,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15758,16 +15769,16 @@
         <v>141</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>580</v>
+        <v>158</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>84</v>
@@ -15816,7 +15827,7 @@
         <v>84</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>82</v>
@@ -15851,10 +15862,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15877,16 +15888,16 @@
         <v>95</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15936,7 +15947,7 @@
         <v>84</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>94</v>
@@ -15954,16 +15965,16 @@
         <v>84</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>84</v>
@@ -15971,10 +15982,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16000,10 +16011,10 @@
         <v>114</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -16033,10 +16044,10 @@
         <v>118</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>84</v>
@@ -16054,7 +16065,7 @@
         <v>84</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>94</v>
@@ -16072,13 +16083,13 @@
         <v>84</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>84</v>

--- a/output/StructureDefinition-np-core-patient.xlsx
+++ b/output/StructureDefinition-np-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T13:54:08+05:45</t>
+    <t>2025-08-29T16:43:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-np-core-patient.xlsx
+++ b/output/StructureDefinition-np-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-31T08:04:43+05:45</t>
+    <t>2025-09-04T17:51:26+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-np-core-patient.xlsx
+++ b/output/StructureDefinition-np-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T17:51:26+05:45</t>
+    <t>2025-09-04T23:57:58+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-np-core-patient.xlsx
+++ b/output/StructureDefinition-np-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T23:57:58+05:45</t>
+    <t>2025-09-05T08:09:57+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-np-core-patient.xlsx
+++ b/output/StructureDefinition-np-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T08:09:57+05:45</t>
+    <t>2025-09-07T15:46:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-np-core-patient.xlsx
+++ b/output/StructureDefinition-np-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T15:46:36+05:45</t>
+    <t>2025-09-08T06:44:10+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
